--- a/CCLE/bargraph/CCLE_Cellline_classify_4_nodes_K_5.xlsx
+++ b/CCLE/bargraph/CCLE_Cellline_classify_4_nodes_K_5.xlsx
@@ -31,88 +31,121 @@
     <t>K_labels</t>
   </si>
   <si>
+    <t>NCIH2141_LUNG</t>
+  </si>
+  <si>
+    <t>CORL95_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH510_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH889_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1930_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1963_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1618_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2196_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2029_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH146_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1436_LUNG</t>
+  </si>
+  <si>
+    <t>CORL47_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1105_LUNG</t>
+  </si>
+  <si>
+    <t>SHP77_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2286_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1339_LUNG</t>
+  </si>
+  <si>
+    <t>DMS114_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH841_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH196_LUNG</t>
+  </si>
+  <si>
+    <t>SBC5_LUNG</t>
+  </si>
+  <si>
+    <t>SW1271_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1341_LUNG</t>
+  </si>
+  <si>
     <t>NCIH1048_LUNG</t>
   </si>
   <si>
+    <t>NCIH526_LUNG</t>
+  </si>
+  <si>
     <t>NCIH211_LUNG</t>
   </si>
   <si>
-    <t>NCIH526_LUNG</t>
-  </si>
-  <si>
     <t>CORL311_LUNG</t>
   </si>
   <si>
-    <t>NCIH2029_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1930_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH510_LUNG</t>
-  </si>
-  <si>
-    <t>SHP77_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2141_LUNG</t>
-  </si>
-  <si>
-    <t>CORL47_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH146_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1618_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2196_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1963_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1436_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH889_LUNG</t>
-  </si>
-  <si>
-    <t>CORL95_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1105_LUNG</t>
+    <t>NCIH2081_LUNG</t>
+  </si>
+  <si>
+    <t>DMS454_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1876_LUNG</t>
+  </si>
+  <si>
+    <t>CORL88_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1092_LUNG</t>
+  </si>
+  <si>
+    <t>CORL279_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1836_LUNG</t>
   </si>
   <si>
     <t>NCIH69_LUNG</t>
   </si>
   <si>
-    <t>NCIH2081_LUNG</t>
-  </si>
-  <si>
-    <t>DMS454_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1876_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1836_LUNG</t>
-  </si>
-  <si>
-    <t>CORL88_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1092_LUNG</t>
-  </si>
-  <si>
-    <t>CORL279_LUNG</t>
+    <t>COLO668_LUNG</t>
   </si>
   <si>
     <t>DMS153_LUNG</t>
   </si>
   <si>
-    <t>COLO668_LUNG</t>
+    <t>NCIH209_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2066_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1184_LUNG</t>
   </si>
   <si>
     <t>DMS53_LUNG</t>
@@ -121,67 +154,34 @@
     <t>DMS79_LUNG</t>
   </si>
   <si>
-    <t>NCIH209_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1184_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2066_LUNG</t>
-  </si>
-  <si>
-    <t>SBC5_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH841_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1341_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH196_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2286_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1339_LUNG</t>
-  </si>
-  <si>
-    <t>SW1271_LUNG</t>
-  </si>
-  <si>
-    <t>DMS114_LUNG</t>
+    <t>HCC33_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2171_LUNG</t>
   </si>
   <si>
     <t>CORL24_LUNG</t>
   </si>
   <si>
-    <t>HCC33_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2171_LUNG</t>
+    <t>NCIH446_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH1694_LUNG</t>
+  </si>
+  <si>
+    <t>SCLC21H_LUNG</t>
+  </si>
+  <si>
+    <t>NCIH2227_LUNG</t>
+  </si>
+  <si>
+    <t>DMS273_LUNG</t>
+  </si>
+  <si>
+    <t>CPCN_LUNG</t>
   </si>
   <si>
     <t>NCIH82_LUNG</t>
-  </si>
-  <si>
-    <t>DMS273_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH1694_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH2227_LUNG</t>
-  </si>
-  <si>
-    <t>SCLC21H_LUNG</t>
-  </si>
-  <si>
-    <t>CPCN_LUNG</t>
-  </si>
-  <si>
-    <t>NCIH446_LUNG</t>
   </si>
   <si>
     <t>NCIH524_LUNG</t>
@@ -570,16 +570,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-1.20309601711325</v>
+        <v>0.8581273610151863</v>
       </c>
       <c r="C2">
-        <v>-1.143791555028935</v>
+        <v>-0.8781493836903865</v>
       </c>
       <c r="D2">
-        <v>1.546286340987932</v>
+        <v>0.01655709397327306</v>
       </c>
       <c r="E2">
-        <v>3.537020053157264</v>
+        <v>-0.1409858030140065</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-1.159463343267867</v>
+        <v>0.9224705111989732</v>
       </c>
       <c r="C3">
-        <v>-0.8723550004949363</v>
+        <v>-0.8088304420976259</v>
       </c>
       <c r="D3">
-        <v>-0.4766027467626911</v>
+        <v>-0.6040213573053411</v>
       </c>
       <c r="E3">
-        <v>3.125464097243328</v>
+        <v>-0.280706272666655</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -610,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-1.158452962026107</v>
+        <v>1.006814184301568</v>
       </c>
       <c r="C4">
-        <v>-0.9402345535400816</v>
+        <v>-0.5402330100087188</v>
       </c>
       <c r="D4">
-        <v>-0.2461976365432501</v>
+        <v>-0.6925468960687167</v>
       </c>
       <c r="E4">
-        <v>3.485049480695202</v>
+        <v>-0.2534404669527272</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-1.260607175521159</v>
+        <v>1.023679969715793</v>
       </c>
       <c r="C5">
-        <v>-0.7592850952002734</v>
+        <v>-0.9559284157016134</v>
       </c>
       <c r="D5">
-        <v>-0.6191929726928724</v>
+        <v>0.7169976840192331</v>
       </c>
       <c r="E5">
-        <v>3.318660635143654</v>
+        <v>-0.3920180702254562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -650,19 +650,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.109304978814564</v>
+        <v>0.8699974368692222</v>
       </c>
       <c r="C6">
-        <v>-0.3331980597847151</v>
+        <v>-1.083611232266243</v>
       </c>
       <c r="D6">
-        <v>-0.7761327626340939</v>
+        <v>-0.3459206765040044</v>
       </c>
       <c r="E6">
-        <v>-0.09090716705277571</v>
+        <v>-0.3896991780721948</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.8699974368692222</v>
+        <v>0.8186578487327737</v>
       </c>
       <c r="C7">
-        <v>-1.083611232266243</v>
+        <v>-0.9762152170165979</v>
       </c>
       <c r="D7">
-        <v>-0.3459206765040044</v>
+        <v>-0.5503094164471014</v>
       </c>
       <c r="E7">
-        <v>-0.3896991780721948</v>
+        <v>-0.3691352172367009</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -690,19 +690,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1.006814184301568</v>
+        <v>0.7324315628263425</v>
       </c>
       <c r="C8">
-        <v>-0.5402330100087188</v>
+        <v>-0.9416190003294961</v>
       </c>
       <c r="D8">
-        <v>-0.6925468960687167</v>
+        <v>0.1465082055551488</v>
       </c>
       <c r="E8">
-        <v>-0.2534404669527272</v>
+        <v>-0.2887460762479366</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -710,19 +710,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.014965180887092</v>
+        <v>1.072869726458836</v>
       </c>
       <c r="C9">
-        <v>-1.016515918611972</v>
+        <v>-1.207266895529446</v>
       </c>
       <c r="D9">
-        <v>-0.7596326575871859</v>
+        <v>-0.7308701653547981</v>
       </c>
       <c r="E9">
-        <v>-0.4699249404113251</v>
+        <v>-0.475521065342971</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -730,19 +730,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.8581273610151863</v>
+        <v>1.109304978814564</v>
       </c>
       <c r="C10">
-        <v>-0.8781493836903865</v>
+        <v>-0.3331980597847151</v>
       </c>
       <c r="D10">
-        <v>0.01655709397327306</v>
+        <v>-0.7761327626340939</v>
       </c>
       <c r="E10">
-        <v>-0.1409858030140065</v>
+        <v>-0.09090716705277571</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -750,19 +750,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8532495676130266</v>
+        <v>0.8273156437940862</v>
       </c>
       <c r="C11">
-        <v>-1.044735280980452</v>
+        <v>-0.9908778540686526</v>
       </c>
       <c r="D11">
-        <v>-0.6220641919493833</v>
+        <v>-0.755997378977721</v>
       </c>
       <c r="E11">
-        <v>-0.4516877425597663</v>
+        <v>-0.2112912335911302</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -770,19 +770,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.8273156437940862</v>
+        <v>0.7351036092279141</v>
       </c>
       <c r="C12">
-        <v>-0.9908778540686526</v>
+        <v>-1.015787070503886</v>
       </c>
       <c r="D12">
-        <v>-0.755997378977721</v>
+        <v>-0.5260474837512892</v>
       </c>
       <c r="E12">
-        <v>-0.2112912335911302</v>
+        <v>-0.2614971390155233</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -790,19 +790,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.7324315628263425</v>
+        <v>0.8532495676130266</v>
       </c>
       <c r="C13">
-        <v>-0.9416190003294961</v>
+        <v>-1.044735280980452</v>
       </c>
       <c r="D13">
-        <v>0.1465082055551488</v>
+        <v>-0.6220641919493833</v>
       </c>
       <c r="E13">
-        <v>-0.2887460762479366</v>
+        <v>-0.4516877425597663</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -810,19 +810,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1.072869726458836</v>
+        <v>0.8703751989343593</v>
       </c>
       <c r="C14">
-        <v>-1.207266895529446</v>
+        <v>-0.934375326079586</v>
       </c>
       <c r="D14">
-        <v>-0.7308701653547981</v>
+        <v>-0.7945714790438942</v>
       </c>
       <c r="E14">
-        <v>-0.475521065342971</v>
+        <v>-0.2741701004767192</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -830,19 +830,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.8186578487327737</v>
+        <v>1.014965180887092</v>
       </c>
       <c r="C15">
-        <v>-0.9762152170165979</v>
+        <v>-1.016515918611972</v>
       </c>
       <c r="D15">
-        <v>-0.5503094164471014</v>
+        <v>-0.7596326575871859</v>
       </c>
       <c r="E15">
-        <v>-0.3691352172367009</v>
+        <v>-0.4699249404113251</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -850,16 +850,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.7351036092279141</v>
+        <v>-1.308155125756967</v>
       </c>
       <c r="C16">
-        <v>-1.015787070503886</v>
+        <v>-1.010308581512985</v>
       </c>
       <c r="D16">
-        <v>-0.5260474837512892</v>
+        <v>2.092282481018567</v>
       </c>
       <c r="E16">
-        <v>-0.2614971390155233</v>
+        <v>-0.1342363930290541</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -870,16 +870,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1.023679969715793</v>
+        <v>-1.278462354659244</v>
       </c>
       <c r="C17">
-        <v>-0.9559284157016134</v>
+        <v>-1.051407391258153</v>
       </c>
       <c r="D17">
-        <v>0.7169976840192331</v>
+        <v>2.032103885785495</v>
       </c>
       <c r="E17">
-        <v>-0.3920180702254562</v>
+        <v>-0.285815071120097</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -890,16 +890,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.9224705111989732</v>
+        <v>-1.131118362957191</v>
       </c>
       <c r="C18">
-        <v>-0.8088304420976259</v>
+        <v>-0.6912164249748409</v>
       </c>
       <c r="D18">
-        <v>-0.6040213573053411</v>
+        <v>1.741875303784422</v>
       </c>
       <c r="E18">
-        <v>-0.280706272666655</v>
+        <v>-0.004425454727554787</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -910,16 +910,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.8703751989343593</v>
+        <v>-1.282379226346763</v>
       </c>
       <c r="C19">
-        <v>-0.934375326079586</v>
+        <v>-0.8241997348272095</v>
       </c>
       <c r="D19">
-        <v>-0.7945714790438942</v>
+        <v>2.170525147889631</v>
       </c>
       <c r="E19">
-        <v>-0.2741701004767192</v>
+        <v>-0.4906544610622223</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.3807121028391228</v>
+        <v>-1.192532162893122</v>
       </c>
       <c r="C20">
-        <v>0.1196888975078931</v>
+        <v>-1.008195233113756</v>
       </c>
       <c r="D20">
-        <v>-0.520241592215711</v>
+        <v>1.863972994930145</v>
       </c>
       <c r="E20">
-        <v>-0.4270986453297156</v>
+        <v>-0.2638856279211779</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -950,19 +950,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.8467337049602208</v>
+        <v>-1.016534902192533</v>
       </c>
       <c r="C21">
-        <v>0.8767104029957374</v>
+        <v>-0.8874847895910449</v>
       </c>
       <c r="D21">
-        <v>-0.3624106363135395</v>
+        <v>1.95983067949144</v>
       </c>
       <c r="E21">
-        <v>-0.4638088163625169</v>
+        <v>0.5459521698980432</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -970,19 +970,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1.003215102560205</v>
+        <v>-1.261005070416366</v>
       </c>
       <c r="C22">
-        <v>0.08332900378029141</v>
+        <v>-0.9179794598627332</v>
       </c>
       <c r="D22">
-        <v>0.5010499057273237</v>
+        <v>2.321771194239902</v>
       </c>
       <c r="E22">
-        <v>-0.4873697655148582</v>
+        <v>-0.09256785740135205</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -990,19 +990,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.4674476745014778</v>
+        <v>-0.9965629688207401</v>
       </c>
       <c r="C23">
-        <v>0.4448029439689882</v>
+        <v>-1.000536986825695</v>
       </c>
       <c r="D23">
-        <v>1.256800256717461</v>
+        <v>1.601257585927309</v>
       </c>
       <c r="E23">
-        <v>0.8158738488287836</v>
+        <v>-0.02499201427542448</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1010,16 +1010,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.9798555932079458</v>
+        <v>-1.20309601711325</v>
       </c>
       <c r="C24">
-        <v>0.3226895339553074</v>
+        <v>-1.143791555028935</v>
       </c>
       <c r="D24">
-        <v>-0.5150432989574872</v>
+        <v>1.546286340987932</v>
       </c>
       <c r="E24">
-        <v>-0.5069601042454642</v>
+        <v>3.537020053157264</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1030,16 +1030,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.9250822029501612</v>
+        <v>-1.158452962026107</v>
       </c>
       <c r="C25">
-        <v>0.08448308946810626</v>
+        <v>-0.9402345535400816</v>
       </c>
       <c r="D25">
-        <v>-0.6403544914068535</v>
+        <v>-0.2461976365432501</v>
       </c>
       <c r="E25">
-        <v>-0.1233354859066605</v>
+        <v>3.485049480695202</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1050,16 +1050,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.5410259105565225</v>
+        <v>-1.159463343267867</v>
       </c>
       <c r="C26">
-        <v>0.6499517714433904</v>
+        <v>-0.8723550004949363</v>
       </c>
       <c r="D26">
-        <v>-0.9000732503583645</v>
+        <v>-0.4766027467626911</v>
       </c>
       <c r="E26">
-        <v>-0.450311461359003</v>
+        <v>3.125464097243328</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1070,16 +1070,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.4676335311795322</v>
+        <v>-1.260607175521159</v>
       </c>
       <c r="C27">
-        <v>1.543424675545719</v>
+        <v>-0.7592850952002734</v>
       </c>
       <c r="D27">
-        <v>-0.82778778253787</v>
+        <v>-0.6191929726928724</v>
       </c>
       <c r="E27">
-        <v>-0.4081662008529805</v>
+        <v>3.318660635143654</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1090,19 +1090,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.005745975876001</v>
+        <v>0.8467337049602208</v>
       </c>
       <c r="C28">
-        <v>0.4552006263271027</v>
+        <v>0.8767104029957374</v>
       </c>
       <c r="D28">
-        <v>-0.5838776495951358</v>
+        <v>-0.3624106363135395</v>
       </c>
       <c r="E28">
-        <v>-0.4911098256765365</v>
+        <v>-0.4638088163625169</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1110,19 +1110,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.9211471090080061</v>
+        <v>1.003215102560205</v>
       </c>
       <c r="C29">
-        <v>0.5336615100973033</v>
+        <v>0.08332900378029141</v>
       </c>
       <c r="D29">
-        <v>-0.460554423056444</v>
+        <v>0.5010499057273237</v>
       </c>
       <c r="E29">
-        <v>-0.409251093591586</v>
+        <v>-0.4873697655148582</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1130,19 +1130,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>1.124675065384799</v>
+        <v>0.4674476745014778</v>
       </c>
       <c r="C30">
-        <v>1.086804886166207</v>
+        <v>0.4448029439689882</v>
       </c>
       <c r="D30">
-        <v>0.3288734764177161</v>
+        <v>1.256800256717461</v>
       </c>
       <c r="E30">
-        <v>-0.371702466446443</v>
+        <v>0.8158738488287836</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1150,19 +1150,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>1.002445841402568</v>
+        <v>0.9250822029501612</v>
       </c>
       <c r="C31">
-        <v>0.3794515837425938</v>
+        <v>0.08448308946810626</v>
       </c>
       <c r="D31">
-        <v>-0.8463121334595172</v>
+        <v>-0.6403544914068535</v>
       </c>
       <c r="E31">
-        <v>-0.3078045161649546</v>
+        <v>-0.1233354859066605</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1170,19 +1170,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.8709478548619355</v>
+        <v>0.5410259105565225</v>
       </c>
       <c r="C32">
-        <v>0.3286589254007487</v>
+        <v>0.6499517714433904</v>
       </c>
       <c r="D32">
-        <v>-0.8428006020653928</v>
+        <v>-0.9000732503583645</v>
       </c>
       <c r="E32">
-        <v>-0.2569341175926692</v>
+        <v>-0.450311461359003</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1190,19 +1190,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.963212957996971</v>
+        <v>0.4676335311795322</v>
       </c>
       <c r="C33">
-        <v>0.3901951991909999</v>
+        <v>1.543424675545719</v>
       </c>
       <c r="D33">
-        <v>1.012588051374523</v>
+        <v>-0.82778778253787</v>
       </c>
       <c r="E33">
-        <v>-0.3788451059742171</v>
+        <v>-0.4081662008529805</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1210,19 +1210,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.9595928599199485</v>
+        <v>0.9798555932079458</v>
       </c>
       <c r="C34">
-        <v>1.48922509625999</v>
+        <v>0.3226895339553074</v>
       </c>
       <c r="D34">
-        <v>0.4018945158400036</v>
+        <v>-0.5150432989574872</v>
       </c>
       <c r="E34">
-        <v>-0.3519224012282413</v>
+        <v>-0.5069601042454642</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-1.016534902192533</v>
+        <v>0.3807121028391228</v>
       </c>
       <c r="C35">
-        <v>-0.8874847895910449</v>
+        <v>0.1196888975078931</v>
       </c>
       <c r="D35">
-        <v>1.95983067949144</v>
+        <v>-0.520241592215711</v>
       </c>
       <c r="E35">
-        <v>0.5459521698980432</v>
+        <v>-0.4270986453297156</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1250,16 +1250,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-1.282379226346763</v>
+        <v>0.9211471090080061</v>
       </c>
       <c r="C36">
-        <v>-0.8241997348272095</v>
+        <v>0.5336615100973033</v>
       </c>
       <c r="D36">
-        <v>2.170525147889631</v>
+        <v>-0.460554423056444</v>
       </c>
       <c r="E36">
-        <v>-0.4906544610622223</v>
+        <v>-0.409251093591586</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1270,16 +1270,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.9965629688207401</v>
+        <v>1.005745975876001</v>
       </c>
       <c r="C37">
-        <v>-1.000536986825695</v>
+        <v>0.4552006263271027</v>
       </c>
       <c r="D37">
-        <v>1.601257585927309</v>
+        <v>-0.5838776495951358</v>
       </c>
       <c r="E37">
-        <v>-0.02499201427542448</v>
+        <v>-0.4911098256765365</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1290,16 +1290,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-1.192532162893122</v>
+        <v>0.8709478548619355</v>
       </c>
       <c r="C38">
-        <v>-1.008195233113756</v>
+        <v>0.3286589254007487</v>
       </c>
       <c r="D38">
-        <v>1.863972994930145</v>
+        <v>-0.8428006020653928</v>
       </c>
       <c r="E38">
-        <v>-0.2638856279211779</v>
+        <v>-0.2569341175926692</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1310,16 +1310,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-1.308155125756967</v>
+        <v>0.9595928599199485</v>
       </c>
       <c r="C39">
-        <v>-1.010308581512985</v>
+        <v>1.48922509625999</v>
       </c>
       <c r="D39">
-        <v>2.092282481018567</v>
+        <v>0.4018945158400036</v>
       </c>
       <c r="E39">
-        <v>-0.1342363930290541</v>
+        <v>-0.3519224012282413</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -1330,16 +1330,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-1.278462354659244</v>
+        <v>0.963212957996971</v>
       </c>
       <c r="C40">
-        <v>-1.051407391258153</v>
+        <v>0.3901951991909999</v>
       </c>
       <c r="D40">
-        <v>2.032103885785495</v>
+        <v>1.012588051374523</v>
       </c>
       <c r="E40">
-        <v>-0.285815071120097</v>
+        <v>-0.3788451059742171</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -1350,16 +1350,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-1.261005070416366</v>
+        <v>1.124675065384799</v>
       </c>
       <c r="C41">
-        <v>-0.9179794598627332</v>
+        <v>1.086804886166207</v>
       </c>
       <c r="D41">
-        <v>2.321771194239902</v>
+        <v>0.3288734764177161</v>
       </c>
       <c r="E41">
-        <v>-0.09256785740135205</v>
+        <v>-0.371702466446443</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -1370,16 +1370,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-1.131118362957191</v>
+        <v>1.002445841402568</v>
       </c>
       <c r="C42">
-        <v>-0.6912164249748409</v>
+        <v>0.3794515837425938</v>
       </c>
       <c r="D42">
-        <v>1.741875303784422</v>
+        <v>-0.8463121334595172</v>
       </c>
       <c r="E42">
-        <v>-0.004425454727554787</v>
+        <v>-0.3078045161649546</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1390,16 +1390,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-1.399793744867443</v>
+        <v>-1.267787146189633</v>
       </c>
       <c r="C43">
-        <v>1.501304336527081</v>
+        <v>0.8572397835659409</v>
       </c>
       <c r="D43">
-        <v>-0.552035590393769</v>
+        <v>-0.7645670862967823</v>
       </c>
       <c r="E43">
-        <v>-0.3813590233878333</v>
+        <v>-0.4217278047107396</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -1410,16 +1410,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-1.267787146189633</v>
+        <v>-0.3640756931537</v>
       </c>
       <c r="C44">
-        <v>0.8572397835659409</v>
+        <v>1.472912073087959</v>
       </c>
       <c r="D44">
-        <v>-0.7645670862967823</v>
+        <v>-0.9241132906780329</v>
       </c>
       <c r="E44">
-        <v>-0.4217278047107396</v>
+        <v>-0.2253715714860239</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -1430,16 +1430,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.3640756931537</v>
+        <v>-1.399793744867443</v>
       </c>
       <c r="C45">
-        <v>1.472912073087959</v>
+        <v>1.501304336527081</v>
       </c>
       <c r="D45">
-        <v>-0.9241132906780329</v>
+        <v>-0.552035590393769</v>
       </c>
       <c r="E45">
-        <v>-0.2253715714860239</v>
+        <v>-0.3813590233878333</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -1450,16 +1450,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.8352273009795573</v>
+        <v>-1.224208223318483</v>
       </c>
       <c r="C46">
-        <v>1.429638243497247</v>
+        <v>1.411982379777307</v>
       </c>
       <c r="D46">
-        <v>-0.4890813354496912</v>
+        <v>-0.6081622741876339</v>
       </c>
       <c r="E46">
-        <v>-0.2306834896368538</v>
+        <v>-0.3206929277316798</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -1470,16 +1470,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-1.119454477248085</v>
+        <v>-1.072592788711969</v>
       </c>
       <c r="C47">
-        <v>1.448747415305442</v>
+        <v>1.612690571813316</v>
       </c>
       <c r="D47">
-        <v>-0.4394678754925024</v>
+        <v>-0.6649619507061484</v>
       </c>
       <c r="E47">
-        <v>-0.1934348472143291</v>
+        <v>-0.3009270018863954</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -1490,16 +1490,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-1.072592788711969</v>
+        <v>-0.3280480942173023</v>
       </c>
       <c r="C48">
-        <v>1.612690571813316</v>
+        <v>1.508618960312265</v>
       </c>
       <c r="D48">
-        <v>-0.6649619507061484</v>
+        <v>-0.3482145046369352</v>
       </c>
       <c r="E48">
-        <v>-0.3009270018863954</v>
+        <v>-0.3311082562810104</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -1530,16 +1530,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.3280480942173023</v>
+        <v>-1.119454477248085</v>
       </c>
       <c r="C50">
-        <v>1.508618960312265</v>
+        <v>1.448747415305442</v>
       </c>
       <c r="D50">
-        <v>-0.3482145046369352</v>
+        <v>-0.4394678754925024</v>
       </c>
       <c r="E50">
-        <v>-0.3311082562810104</v>
+        <v>-0.1934348472143291</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -1570,16 +1570,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-1.224208223318483</v>
+        <v>-0.8352273009795573</v>
       </c>
       <c r="C52">
-        <v>1.411982379777307</v>
+        <v>1.429638243497247</v>
       </c>
       <c r="D52">
-        <v>-0.6081622741876339</v>
+        <v>-0.4890813354496912</v>
       </c>
       <c r="E52">
-        <v>-0.3206929277316798</v>
+        <v>-0.2306834896368538</v>
       </c>
       <c r="F52">
         <v>4</v>
